--- a/doc/data.xlsx
+++ b/doc/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="输出" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,30 @@
   </si>
   <si>
     <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大叠加数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质1绿2蓝3紫4橙5红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,19 +598,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,16 +621,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -617,16 +650,25 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -636,11 +678,17 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>999</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -650,11 +698,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -664,13 +718,19 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5">
+        <v>999</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -685,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/data.xlsx
+++ b/doc/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="输出" sheetId="2" r:id="rId1"/>
@@ -12,237 +12,504 @@
     <sheet name="事件" sheetId="3" r:id="rId3"/>
     <sheet name="格式说明" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>类型：0，其他；1，消耗；</t>
+  </si>
+  <si>
+    <t>品质1绿2蓝3紫4橙5红</t>
+  </si>
+  <si>
+    <t>价格k=v</t>
+  </si>
+  <si>
+    <t>最大叠加数</t>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型：0，其他；1，消耗；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值;哈希</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>icon</t>
   </si>
   <si>
     <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格k=v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1=100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>h+100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值;哈希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{h:36, attack:40}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"h":36, "attack":40}</t>
+  </si>
+  <si>
+    <t>等级限制</t>
+  </si>
+  <si>
+    <t>类型：1给东西;2战斗</t>
+  </si>
+  <si>
+    <t>完成条件</t>
+  </si>
+  <si>
+    <t>普通奖励[[id,num],[id,num]]</t>
+  </si>
+  <si>
+    <t>特殊奖励</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>给钱</t>
   </si>
   <si>
-    <t>类型：1给东西;2战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1=500</t>
+  </si>
+  <si>
+    <t>[[2,1],[1,1]]</t>
+  </si>
+  <si>
+    <t>战斗</t>
+  </si>
+  <si>
+    <t>[[1,100]]</t>
   </si>
   <si>
     <t>“|”为第一分隔符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通奖励k=v|k=v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大叠加数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质1绿2蓝3紫4橙5红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -250,9 +517,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -263,17 +772,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -322,7 +875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,7 +910,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,120 +1113,121 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="3" max="6" width="12" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="48" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -685,15 +1239,15 @@
         <v>999</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -705,15 +1259,15 @@
         <v>999</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -722,96 +1276,97 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>999</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" ht="40.5" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -820,21 +1375,21 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -843,36 +1398,37 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/data.xlsx
+++ b/doc/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="输出" sheetId="2" r:id="rId1"/>
@@ -2003,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6573,8 +6573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>317</v>

--- a/doc/data.xlsx
+++ b/doc/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="输出" sheetId="2" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>给钱</t>
   </si>
   <si>
-    <t>1=500</t>
-  </si>
-  <si>
     <t>[[2,1],[1,1]]</t>
   </si>
   <si>
@@ -1456,6 +1453,10 @@
   </si>
   <si>
     <t>lastRnd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,50]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1971,26 +1972,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2017,54 +2018,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>328</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2300,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2378,10 +2379,10 @@
         <v>46</v>
       </c>
       <c r="F3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2389,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2398,10 +2399,10 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2447,13 +2448,13 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2467,7 +2468,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2475,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2489,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2503,13 +2504,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2517,13 +2518,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2531,13 +2532,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2545,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2559,13 +2560,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2592,13 +2593,13 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1">
@@ -2606,10 +2607,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2659,12 +2660,12 @@
     </row>
     <row r="20" spans="7:12" ht="15">
       <c r="L20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="7:12">
       <c r="G23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2685,42 +2686,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2731,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="7">
         <v>5</v>
@@ -2751,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>8</v>
@@ -2771,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8">
         <v>15</v>
@@ -2791,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8">
         <v>14</v>
@@ -2811,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="8">
         <v>12</v>
@@ -2831,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8">
         <v>15</v>
@@ -2851,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8">
         <v>20</v>
@@ -2871,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8">
         <v>18</v>
@@ -2891,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="8">
         <v>18</v>
@@ -2911,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="8">
         <v>21</v>
@@ -2931,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="8">
         <v>19</v>
@@ -2951,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="8">
         <v>36</v>
@@ -2971,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="8">
         <v>37</v>
@@ -2991,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8">
         <v>20</v>
@@ -3011,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="8">
         <v>20</v>
@@ -3031,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="8">
         <v>19</v>
@@ -3051,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="8">
         <v>19</v>
@@ -3071,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="8">
         <v>37</v>
@@ -3091,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="8">
         <v>19</v>
@@ -3111,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="8">
         <v>19</v>
@@ -3131,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="8">
         <v>20</v>
@@ -3151,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="8">
         <v>20</v>
@@ -3171,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="8">
         <v>20</v>
@@ -3191,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="8">
         <v>21</v>
@@ -3211,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="8">
         <v>36</v>
@@ -3231,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="8">
         <v>21</v>
@@ -3251,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="8">
         <v>36</v>
@@ -3271,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="8">
         <v>57</v>
@@ -3291,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="8">
         <v>40</v>
@@ -3311,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8">
         <v>54</v>
@@ -3331,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8">
         <v>56</v>
@@ -3351,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8">
         <v>70</v>
@@ -3371,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8">
         <v>70</v>
@@ -3391,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8">
         <v>44</v>
@@ -3411,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8">
         <v>73</v>
@@ -3431,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8">
         <v>46</v>
@@ -3451,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8">
         <v>64</v>
@@ -3471,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="8">
         <v>116</v>
@@ -3491,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="8">
         <v>63</v>
@@ -3511,7 +3512,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="8">
         <v>91</v>
@@ -3531,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="8">
         <v>91</v>
@@ -3551,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="8">
         <v>110</v>
@@ -3571,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="8">
         <v>89</v>
@@ -3591,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" s="8">
         <v>92</v>
@@ -3611,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D47" s="8">
         <v>143</v>
@@ -3631,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="8">
         <v>78</v>
@@ -3651,7 +3652,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" s="8">
         <v>79</v>
@@ -3671,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="8">
         <v>75</v>
@@ -3691,7 +3692,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D51" s="8">
         <v>147</v>
@@ -3711,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="8">
         <v>109</v>
@@ -3731,7 +3732,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="8">
         <v>127</v>
@@ -3751,7 +3752,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="8">
         <v>151</v>
@@ -3771,7 +3772,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" s="8">
         <v>112</v>
@@ -3791,7 +3792,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="8">
         <v>113</v>
@@ -3811,7 +3812,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D57" s="8">
         <v>218</v>
@@ -3831,7 +3832,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D58" s="8">
         <v>155</v>
@@ -3851,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D59" s="8">
         <v>113</v>
@@ -3871,7 +3872,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D60" s="8">
         <v>115</v>
@@ -3891,7 +3892,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" s="8">
         <v>212</v>
@@ -3911,7 +3912,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="8">
         <v>204</v>
@@ -3931,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="8">
         <v>294</v>
@@ -3951,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D64" s="8">
         <v>300</v>
@@ -3971,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" s="8">
         <v>294</v>
@@ -3991,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" s="8">
         <v>161</v>
@@ -4011,7 +4012,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D67" s="8">
         <v>212</v>
@@ -4031,7 +4032,7 @@
         <v>6</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D68" s="8">
         <v>180</v>
@@ -4051,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" s="8">
         <v>186</v>
@@ -4071,7 +4072,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" s="8">
         <v>158</v>
@@ -4091,7 +4092,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" s="8">
         <v>210</v>
@@ -4111,7 +4112,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" s="8">
         <v>206</v>
@@ -4131,7 +4132,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="8">
         <v>302</v>
@@ -4151,7 +4152,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="8">
         <v>298</v>
@@ -4171,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="8">
         <v>394</v>
@@ -4191,7 +4192,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="8">
         <v>404</v>
@@ -4211,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="8">
         <v>282</v>
@@ -4231,7 +4232,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D78" s="8">
         <v>282</v>
@@ -4251,7 +4252,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="8">
         <v>159</v>
@@ -4271,7 +4272,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D80" s="8">
         <v>408</v>
@@ -4291,7 +4292,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D81" s="8">
         <v>291</v>
@@ -4311,7 +4312,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D82" s="8">
         <v>292</v>
@@ -4331,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D83" s="8">
         <v>164</v>
@@ -4351,7 +4352,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D84" s="8">
         <v>201</v>
@@ -4371,7 +4372,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D85" s="8">
         <v>277</v>
@@ -4391,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="8">
         <v>192</v>
@@ -4411,7 +4412,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" s="8">
         <v>274</v>
@@ -4431,7 +4432,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D88" s="8">
         <v>515</v>
@@ -4451,7 +4452,7 @@
         <v>8</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D89" s="8">
         <v>530</v>
@@ -4471,7 +4472,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D90" s="8">
         <v>517</v>
@@ -4491,7 +4492,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D91" s="8">
         <v>316</v>
@@ -4511,7 +4512,7 @@
         <v>8</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D92" s="8">
         <v>525</v>
@@ -4531,7 +4532,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D93" s="8">
         <v>379</v>
@@ -4551,7 +4552,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D94" s="8">
         <v>280</v>
@@ -4571,7 +4572,7 @@
         <v>8</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D95" s="8">
         <v>307</v>
@@ -4591,7 +4592,7 @@
         <v>8</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D96" s="8">
         <v>274</v>
@@ -4611,7 +4612,7 @@
         <v>8</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D97" s="8">
         <v>273</v>
@@ -4631,7 +4632,7 @@
         <v>8</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D98" s="8">
         <v>512</v>
@@ -4651,7 +4652,7 @@
         <v>8</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D99" s="8">
         <v>520</v>
@@ -4671,7 +4672,7 @@
         <v>9</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D100" s="8">
         <v>468</v>
@@ -4691,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D101" s="8">
         <v>651</v>
@@ -4711,7 +4712,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D102" s="8">
         <v>462</v>
@@ -4731,7 +4732,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D103" s="8">
         <v>400</v>
@@ -4751,7 +4752,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D104" s="8">
         <v>470</v>
@@ -4771,7 +4772,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D105" s="8">
         <v>474</v>
@@ -4791,7 +4792,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" s="8">
         <v>453</v>
@@ -4811,7 +4812,7 @@
         <v>9</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D107" s="8">
         <v>455</v>
@@ -4831,7 +4832,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D108" s="8">
         <v>346</v>
@@ -4851,7 +4852,7 @@
         <v>9</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D109" s="8">
         <v>632</v>
@@ -4871,7 +4872,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D110" s="8">
         <v>466</v>
@@ -4891,7 +4892,7 @@
         <v>9</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D111" s="8">
         <v>461</v>
@@ -4911,7 +4912,7 @@
         <v>9</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D112" s="8">
         <v>349</v>
@@ -4931,7 +4932,7 @@
         <v>10</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D113" s="8">
         <v>563</v>
@@ -4951,7 +4952,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D114" s="8">
         <v>820</v>
@@ -4971,7 +4972,7 @@
         <v>10</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D115" s="8">
         <v>581</v>
@@ -4991,7 +4992,7 @@
         <v>10</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D116" s="8">
         <v>416</v>
@@ -5011,7 +5012,7 @@
         <v>10</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D117" s="8">
         <v>768</v>
@@ -5031,7 +5032,7 @@
         <v>10</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D118" s="8">
         <v>784</v>
@@ -5051,7 +5052,7 @@
         <v>10</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D119" s="8">
         <v>800</v>
@@ -5071,7 +5072,7 @@
         <v>10</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D120" s="8">
         <v>551</v>
@@ -5091,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D121" s="8">
         <v>800</v>
@@ -5111,7 +5112,7 @@
         <v>10</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D122" s="8">
         <v>795</v>
@@ -5131,7 +5132,7 @@
         <v>10</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D123" s="8">
         <v>567</v>
@@ -5151,7 +5152,7 @@
         <v>10</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D124" s="8">
         <v>820</v>
@@ -5171,7 +5172,7 @@
         <v>10</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D125" s="8">
         <v>431</v>
@@ -5191,7 +5192,7 @@
         <v>11</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D126" s="8">
         <v>945</v>
@@ -5211,7 +5212,7 @@
         <v>11</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D127" s="8">
         <v>509</v>
@@ -5231,7 +5232,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D128" s="8">
         <v>969</v>
@@ -5251,7 +5252,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D129" s="8">
         <v>670</v>
@@ -5271,7 +5272,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D130" s="8">
         <v>964</v>
@@ -5291,7 +5292,7 @@
         <v>11</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D131" s="8">
         <v>603</v>
@@ -5311,7 +5312,7 @@
         <v>11</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D132" s="8">
         <v>598</v>
@@ -5331,7 +5332,7 @@
         <v>11</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D133" s="8">
         <v>371</v>
@@ -5351,7 +5352,7 @@
         <v>11</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D134" s="8">
         <v>675</v>
@@ -5371,7 +5372,7 @@
         <v>11</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D135" s="8">
         <v>392</v>
@@ -5391,7 +5392,7 @@
         <v>11</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D136" s="8">
         <v>594</v>
@@ -5411,7 +5412,7 @@
         <v>11</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D137" s="8">
         <v>576</v>
@@ -5431,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D138" s="8">
         <v>982</v>
@@ -5451,7 +5452,7 @@
         <v>11</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D139" s="8">
         <v>940</v>
@@ -5471,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D140" s="8">
         <v>1138</v>
@@ -5491,7 +5492,7 @@
         <v>12</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D141" s="8">
         <v>1103</v>
@@ -5511,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D142" s="8">
         <v>679</v>
@@ -5531,7 +5532,7 @@
         <v>12</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D143" s="8">
         <v>607</v>
@@ -5551,7 +5552,7 @@
         <v>12</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D144" s="8">
         <v>583</v>
@@ -5571,7 +5572,7 @@
         <v>12</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D145" s="8">
         <v>1143</v>
@@ -5591,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D146" s="8">
         <v>1155</v>
@@ -5611,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D147" s="8">
         <v>1137</v>
@@ -5631,7 +5632,7 @@
         <v>12</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D148" s="8">
         <v>1190</v>
@@ -5652,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D149" s="8">
         <v>598</v>
@@ -5673,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D150" s="8">
         <v>1093</v>
@@ -5694,7 +5695,7 @@
         <v>13</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D151" s="8">
         <v>706</v>
@@ -5715,7 +5716,7 @@
         <v>13</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D152" s="8">
         <v>703</v>
@@ -5736,7 +5737,7 @@
         <v>13</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D153" s="8">
         <v>1351</v>
@@ -5757,7 +5758,7 @@
         <v>13</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="8">
         <v>703</v>
@@ -5778,7 +5779,7 @@
         <v>13</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D155" s="8">
         <v>857</v>
@@ -5799,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D156" s="8">
         <v>843</v>
@@ -5820,7 +5821,7 @@
         <v>13</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D157" s="8">
         <v>528</v>
@@ -5841,7 +5842,7 @@
         <v>13</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D158" s="8">
         <v>1364</v>
@@ -5862,7 +5863,7 @@
         <v>13</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D159" s="8">
         <v>969</v>
@@ -5883,7 +5884,7 @@
         <v>13</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D160" s="8">
         <v>1357</v>
@@ -5904,7 +5905,7 @@
         <v>13</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D161" s="8">
         <v>1398</v>
@@ -5925,7 +5926,7 @@
         <v>13</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D162" s="8">
         <v>930</v>
@@ -5945,7 +5946,7 @@
         <v>13</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D163" s="8">
         <v>656</v>
@@ -5965,7 +5966,7 @@
         <v>13</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D164" s="8">
         <v>1325</v>
@@ -6002,78 +6003,78 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6084,16 +6085,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="G3" s="4">
         <f>J3*10</f>
@@ -6125,16 +6126,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G14" si="2">J4*10</f>
@@ -6166,16 +6167,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="2"/>
@@ -6207,16 +6208,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="2"/>
@@ -6247,16 +6248,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="2"/>
@@ -6288,16 +6289,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="2"/>
@@ -6329,16 +6330,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="2"/>
@@ -6369,16 +6370,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="2"/>
@@ -6409,16 +6410,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="2"/>
@@ -6449,16 +6450,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
@@ -6490,16 +6491,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>286</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="2"/>
@@ -6531,16 +6532,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="2"/>
@@ -6573,7 +6574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6586,72 +6587,72 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="50.1" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="I1" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>312</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
         <v>306</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>307</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>309</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6659,10 +6660,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D3">
         <v>1</v>
